--- a/lesson_9/Lesson 09 Homework - Decision Analysis/tables.xlsx
+++ b/lesson_9/Lesson 09 Homework - Decision Analysis/tables.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebolotin/Dropbox/TechDev/UWL/775/lesson_9/Lesson 09 Homework - Decision Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0422F32F-1EC8-B440-86AC-16EDB4831E22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305F9700-FF70-3845-BD7A-30235DD9B013}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" xr2:uid="{39A1B742-E4A5-974D-80B8-253FC87D5279}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{39A1B742-E4A5-974D-80B8-253FC87D5279}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Alternatives</t>
   </si>
@@ -52,6 +52,30 @@
   </si>
   <si>
     <t>Probabilities</t>
+  </si>
+  <si>
+    <t>Alternative</t>
+  </si>
+  <si>
+    <t>Expected Profit</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>(30*.1)+(5*p)-10*(1-0.1-p)</t>
+  </si>
+  <si>
+    <t>(40*.1)+(10*p)-30*(1-0.1-p)</t>
+  </si>
+  <si>
+    <t>(-10*.1)+(0*p)+15*(1-0.1-p)</t>
   </si>
 </sst>
 </file>
@@ -157,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,6 +206,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00603A18-4D2A-4649-8A85-0861A9851572}">
-  <dimension ref="B3:H23"/>
+  <dimension ref="B3:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,7 +653,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E17">
         <v>40</v>
       </c>
@@ -637,7 +664,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E18">
         <v>-10</v>
       </c>
@@ -648,7 +675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E21">
         <f>E$15*E16</f>
         <v>3</v>
@@ -666,7 +693,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E22">
         <f t="shared" ref="E22:G22" si="1">E$15*E17</f>
         <v>4</v>
@@ -684,7 +711,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E23">
         <f t="shared" ref="E23:G23" si="3">E$15*E18</f>
         <v>-1</v>
@@ -702,9 +729,50 @@
         <v>8</v>
       </c>
     </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lesson_9/Lesson 09 Homework - Decision Analysis/tables.xlsx
+++ b/lesson_9/Lesson 09 Homework - Decision Analysis/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebolotin/Dropbox/TechDev/UWL/775/lesson_9/Lesson 09 Homework - Decision Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebolotin/Dropbox/techdev/uwl/775/lesson_9/Lesson 09 Homework - Decision Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305F9700-FF70-3845-BD7A-30235DD9B013}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6295AA6D-DC72-D441-956C-A5BF0DBD4F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{39A1B742-E4A5-974D-80B8-253FC87D5279}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="19580" xr2:uid="{39A1B742-E4A5-974D-80B8-253FC87D5279}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Alternatives</t>
   </si>
@@ -76,12 +76,51 @@
   </si>
   <si>
     <t>(-10*.1)+(0*p)+15*(1-0.1-p)</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Don't screen</t>
+  </si>
+  <si>
+    <t>States of nature</t>
+  </si>
+  <si>
+    <t>$10 per item</t>
+  </si>
+  <si>
+    <t>$100 per defective item</t>
+  </si>
+  <si>
+    <t>Pre-screen</t>
+  </si>
+  <si>
+    <t>Prior probs</t>
+  </si>
+  <si>
+    <t>Payoff table</t>
+  </si>
+  <si>
+    <t>150*10</t>
+  </si>
+  <si>
+    <t>0.05*150*100</t>
+  </si>
+  <si>
+    <t>.25*150*100</t>
+  </si>
+  <si>
+    <t>Expected Payoff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -181,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,6 +250,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,13 +567,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00603A18-4D2A-4649-8A85-0861A9851572}">
-  <dimension ref="B3:H28"/>
+  <dimension ref="B3:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
@@ -766,6 +811,175 @@
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="12">
+        <v>125</v>
+      </c>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>0.05</v>
+      </c>
+      <c r="D37">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>0.8</v>
+      </c>
+      <c r="D40">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>0.05</v>
+      </c>
+      <c r="D42">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <f>150*-10</f>
+        <v>-1500</v>
+      </c>
+      <c r="D43">
+        <f>150*-10</f>
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <f>0.05*150*-100</f>
+        <v>-750</v>
+      </c>
+      <c r="D44">
+        <f>0.25*150*-100</f>
+        <v>-3750</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>0.8</v>
+      </c>
+      <c r="D45">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48">
+        <f>(-1500*0.8)+(-3750*0.2)</f>
+        <v>-1950</v>
+      </c>
+      <c r="F48">
+        <f>(-750*0.8)+(-1500*0.2)</f>
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <f>(-1500*0.8)+(-1500*0.2)</f>
+        <v>-1500</v>
+      </c>
+      <c r="F49">
+        <f>F48--1350</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <f>(-750*0.8)+(-3750*0.2)</f>
+        <v>-1350</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <f>(0.05*0.8)/((0.05*0.8)+(0.25*0.2))</f>
+        <v>0.44444444444444448</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/lesson_9/Lesson 09 Homework - Decision Analysis/tables.xlsx
+++ b/lesson_9/Lesson 09 Homework - Decision Analysis/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebolotin/Dropbox/techdev/uwl/775/lesson_9/Lesson 09 Homework - Decision Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6295AA6D-DC72-D441-956C-A5BF0DBD4F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A924BEB-470B-BE46-B011-7AF3D5924C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="19580" xr2:uid="{39A1B742-E4A5-974D-80B8-253FC87D5279}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Alternatives</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>Expected Payoff</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Try in test market</t>
+  </si>
+  <si>
+    <t>Do not try in test market</t>
+  </si>
+  <si>
+    <t>Introduce product</t>
   </si>
 </sst>
 </file>
@@ -567,14 +582,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00603A18-4D2A-4649-8A85-0861A9851572}">
-  <dimension ref="B3:H54"/>
+  <dimension ref="B3:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -979,6 +995,177 @@
       <c r="B54">
         <f>(0.05*0.8)/((0.05*0.8)+(0.25*0.2))</f>
         <v>0.44444444444444448</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59">
+        <v>40</v>
+      </c>
+      <c r="D59">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61">
+        <v>0.5</v>
+      </c>
+      <c r="D61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>0.8</v>
+      </c>
+      <c r="D63">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64">
+        <f>0.5*40</f>
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <f>0.25*-15</f>
+        <v>-3.75</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66">
+        <v>0.5</v>
+      </c>
+      <c r="D66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69">
+        <f>(32*0.5)+(-3.75*0.5)</f>
+        <v>14.125</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <f>(32*0.5)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78">
+        <v>40</v>
+      </c>
+      <c r="D78">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79">
+        <v>0.5</v>
+      </c>
+      <c r="D79">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82">
+        <f>(40*0.5)+(-15*0.5)</f>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
